--- a/assets/List Work Order 4.xlsx
+++ b/assets/List Work Order 4.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>GARNISH RR BUMPER LWR (IPL)</t>
   </si>
@@ -61,13 +61,19 @@
   </si>
   <si>
     <t>COBA</t>
+  </si>
+  <si>
+    <t>part_number</t>
+  </si>
+  <si>
+    <t>IT01-RBL0105-XX-XX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +90,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -108,11 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,14 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G21"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -410,7 +424,10 @@
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -430,7 +447,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -450,7 +470,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -470,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
